--- a/test_data/VALUE_PATH.xlsx
+++ b/test_data/VALUE_PATH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>arrival_point</t>
   </si>
@@ -62,18 +62,6 @@
   </si>
   <si>
     <t>9876567687'</t>
-  </si>
-  <si>
-    <t>solapur</t>
-  </si>
-  <si>
-    <t>smita</t>
-  </si>
-  <si>
-    <t>smita12@gmail.com</t>
-  </si>
-  <si>
-    <t>8765875678'</t>
   </si>
   <si>
     <t>bengalore</t>
@@ -129,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -166,6 +154,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,31 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,8 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -237,43 +226,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,16 +239,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,13 +299,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,43 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,103 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +490,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +522,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,21 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -587,162 +590,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,11 +740,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1090,21 +1075,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.84375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.9609375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.4296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.046875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.3046875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.8671875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.84375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.9609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.4296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.8671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1128,154 +1113,133 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" s="2" customFormat="1" ht="14.8" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="14.8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="saurabh12@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="saurabh12@gmail.com"/>
     <hyperlink ref="E3" r:id="rId2" display="dhanaji12@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId3" display="ashwini12@gmail.com"/>
-    <hyperlink ref="E7" r:id="rId4" display="trupti12@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId5" display="smita12@gmail.com"/>
-    <hyperlink ref="E2" r:id="rId6" display="rushikesh12@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId7" display="ram12@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId3" display="ashwini12@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId4" display="trupti12@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId5" display="rushikesh12@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId6" display="ram12@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/test_data/VALUE_PATH.xlsx
+++ b/test_data/VALUE_PATH.xlsx
@@ -117,9 +117,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -162,10 +162,116 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,113 +284,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,25 +305,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,127 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,25 +493,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -541,6 +543,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -558,35 +584,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,139 +595,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/test_data/VALUE_PATH.xlsx
+++ b/test_data/VALUE_PATH.xlsx
@@ -118,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -155,7 +155,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,98 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +200,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -284,7 +240,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,13 +299,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,169 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,20 +510,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,26 +532,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,7 +562,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,142 +595,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="5"/>
